--- a/public/Database/danh-sach-huyen.xlsx
+++ b/public/Database/danh-sach-huyen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaiHoc\2021-2022\HK1\Công nghệ web &amp; ứng dung PHP\Database huyện thành phố\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\ocopangiang\public\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6F41BF-9652-4DB1-BFC8-2ABAD811ECD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3711D184-1F14-4C42-95C6-466A5E37AD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -2431,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A688" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D701"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2456,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>55000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2467,7 +2467,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>55000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
